--- a/Tサイト課題・整理_191010.xlsx
+++ b/Tサイト課題・整理_191010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03419\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\GitHub\intro_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD850563-0FC1-49F3-8B36-8AED5EF647CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C730C7-8B4E-4B26-ADDF-B118431DE73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21732" windowHeight="14592" xr2:uid="{2CB84BBE-6E7C-4979-88D4-6D12ED8E0AC9}"/>
+    <workbookView xWindow="4080" yWindow="1785" windowWidth="20580" windowHeight="13275" xr2:uid="{2CB84BBE-6E7C-4979-88D4-6D12ED8E0AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="課題整理 (2)" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
-  <si>
-    <t>ジャンル</t>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>課題</t>
     <rPh sb="0" eb="2">
@@ -1081,6 +1077,10 @@
     <rPh sb="3" eb="4">
       <t>ツク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1384,18 +1384,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1458,6 +1446,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1776,418 +1776,418 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="65" style="4" customWidth="1"/>
     <col min="3" max="3" width="42" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="4"/>
+    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="A3" s="29"/>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="29"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="A7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="29"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="29"/>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="29"/>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22" t="s">
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="29"/>
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="29"/>
+      <c r="B20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="29"/>
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="29"/>
+      <c r="B23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="30"/>
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="48.6" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="8"/>
-      <c r="B20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="8"/>
-      <c r="B21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="29"/>
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="29"/>
+      <c r="B29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="8"/>
-      <c r="B23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="29"/>
+      <c r="B30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="29"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="29"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
-      <c r="B28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
-      <c r="B30" s="14" t="s">
+      <c r="B34" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="8"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="29" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
